--- a/biology/Botanique/Parc_Maksimir/Parc_Maksimir.xlsx
+++ b/biology/Botanique/Parc_Maksimir/Parc_Maksimir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Maksmir est le plus ancien parc public de la capitale de la Croatie, Zagreb, dans l'arrondissement du même nom. D'une superficie de 316 ha, le parc est fondé en 1787 et ouvert au public en 1794. Il compte parmi les parcs publics les plus anciens d'Europe.
 Au sein de ce parc, très appréciés des Zagrébois, se trouve le parc zoologique de la ville.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1787, l'évêque de Zagreb Maksimilijan Vrhovac (en) fonde un parc à l'extérieur de la ville. Vrhovac souhaitait par là constituer, au sein des grandes étendues de forêts propriétés de l'évêché, aménager un parc pour la promenade.
 La première mention écrite du parc apparaît en 1791. En 1794, le parc Maksimir devient le premier parc public dans cette partie de l'Europe. À la fin du XVIIIe siècle, il accueille une ménagerie, ancêtre du zoo actuel.
